--- a/Excel/Level.xlsx
+++ b/Excel/Level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15410" windowHeight="11520"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TTTT</t>
   </si>
@@ -41,16 +41,10 @@
     <t>怪物ID列表</t>
   </si>
   <si>
-    <t>怪物数量列表</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>listMonsterID</t>
-  </si>
-  <si>
-    <t>listMonsterNum</t>
   </si>
   <si>
     <t>int</t>
@@ -59,10 +53,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>1001|1002</t>
-  </si>
-  <si>
-    <t>2|1</t>
+    <t>1001|1001|1002</t>
   </si>
 </sst>
 </file>
@@ -997,80 +988,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>1001</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Level.xlsx
+++ b/Excel/Level.xlsx
@@ -991,7 +991,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
